--- a/api-geoserver.xlsx
+++ b/api-geoserver.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\geoserver-api\geoserver-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6498023F-A046-4F3E-9F9D-1EB2672AF972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615BF1F-117D-479C-8FBE-FBF832A654F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F823056F-10FF-4513-9F80-96F6A261DE62}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" xr2:uid="{F823056F-10FF-4513-9F80-96F6A261DE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Restful Api của Geoserver</t>
   </si>
@@ -175,6 +175,87 @@
   </si>
   <si>
     <t>Mặc dù trả về trạng thái thành công nhưng chưa thể cập nhật được</t>
+  </si>
+  <si>
+    <t>Thêm mới PostGIS database vào Store</t>
+  </si>
+  <si>
+    <t>http://localhost:8085/geoserver/rest/workspaces
+/{workspace_name}/datastores</t>
+  </si>
+  <si>
+    <t>{
+  "dataStore": {
+    "name": "gis",
+    "connectionParameters": {
+      "host": "localhost",
+      "port": 5432,
+      "database": "gis",
+      "user": "postgres",
+      "passwd": "postgres",
+      "dbtype": "postgis"
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8085/geoserver/rest/workspaces
+/{workspace_name}/datastores/{store_name}  </t>
+  </si>
+  <si>
+    <t>Lấy ra thông tin chi tiết của Store</t>
+  </si>
+  <si>
+    <t>{
+    "dataStore": {
+        "name": "vinhdz",
+        "type": "PostGIS",
+        "enabled": true,
+        "workspace": {
+            "name": "string",
+            "href": "http://localhost:8085/geoserver/rest/workspaces/string.json"
+        },
+        "connectionParameters": {
+            "entry": [
+                {
+                    "@key": "database",
+                    "$": "gis_test"
+                },
+                {
+                    "@key": "port",
+                    "$": "5432"
+                },
+                {
+                    "@key": "passwd",
+                    "$": "crypt1:kjhpvxlqzRD3hCNsSNQh5msiRylpjiVF"
+                },
+                {
+                    "@key": "host",
+                    "$": "localhost"
+                },
+                {
+                    "@key": "dbtype",
+                    "$": "postgis"
+                },
+                {
+                    "@key": "namespace",
+                    "$": "http://string"
+                },
+                {
+                    "@key": "user",
+                    "$": "postgres"
+                }
+            ]
+        },
+        "_default": false,
+        "dateCreated": "2024-03-10 14:59:19.772 UTC",
+        "disableOnConnFailure": false,
+        "featureTypes": "http://localhost:8085/geoserver/rest/workspaces/string/datastores/vinhdz/featuretypes.json"
+    }
+}</t>
+  </si>
+  <si>
+    <t>3.Layer</t>
   </si>
 </sst>
 </file>
@@ -286,76 +367,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5BAA92-DC99-43F4-B47C-F9CDE30933A4}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11:X11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,90 +780,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -821,471 +896,753 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="6" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="8" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="12" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="8" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="12" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11" t="s">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="8" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="11" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="11" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11" t="s">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
     </row>
     <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="11" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-    </row>
-    <row r="17" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="64">
+    <mergeCell ref="A22:Z24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:U16"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="A1:Z3"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A4:Z6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="A13:Z15"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="V11:X11"/>
@@ -1302,23 +1659,6 @@
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="O8:U8"/>
     <mergeCell ref="O9:U9"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="A1:Z3"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A4:Z6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{083BD967-CB79-4443-8C0F-F90E79746B45}"/>
@@ -1326,6 +1666,11 @@
     <hyperlink ref="B10" r:id="rId3" xr:uid="{50379D51-04CD-480B-A996-BDBA4DC6149C}"/>
     <hyperlink ref="B12" r:id="rId4" xr:uid="{7D74AA16-22BD-4CF6-88BC-F925DC85073E}"/>
     <hyperlink ref="B11" r:id="rId5" xr:uid="{C422B5C0-E018-4D8F-B512-BE27DAC54E54}"/>
+    <hyperlink ref="B17" r:id="rId6" xr:uid="{49ED832C-D08E-49EA-8F95-9A34E2C0C310}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{73B65FF8-71CE-41B9-A2F3-784E5EEC4297}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{31B06DB8-0272-460E-8ED0-EA0CA4756959}"/>
+    <hyperlink ref="B21" r:id="rId9" xr:uid="{F3B0218C-FFA5-4272-81F8-D91B27FB1416}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{337417E1-6995-4062-9B7A-9D7B5B64D550}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api-geoserver.xlsx
+++ b/api-geoserver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\geoserver-api\geoserver-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615BF1F-117D-479C-8FBE-FBF832A654F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B8F77A-A3ED-47CD-98E9-654E4F18E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" xr2:uid="{F823056F-10FF-4513-9F80-96F6A261DE62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F823056F-10FF-4513-9F80-96F6A261DE62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Restful Api của Geoserver</t>
   </si>
@@ -256,6 +256,47 @@
   </si>
   <si>
     <t>3.Layer</t>
+  </si>
+  <si>
+    <t>http://localhost:8085/geoserver/rest/workspaces/{workspace_name}/datastores/{datastore_name}/featuretypes
+/{workspace_name}/datastores</t>
+  </si>
+  <si>
+    <t>Thêm mới Layer từ DataStore</t>
+  </si>
+  <si>
+    <t>{
+    "featureType": {
+        "name": "layer_name"
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8085/geoserver/rest/layers
+/{workspace_name}/datastores/{store_name}  </t>
+  </si>
+  <si>
+    <t>Lấy ra danh sách các layer</t>
+  </si>
+  <si>
+    <t>http://localhost:8085/geoserver/rest/workspaces/{workspace_name}/datastores/{datastore_name}/featuretypes/{feature_type}
+{workspace}</t>
+  </si>
+  <si>
+    <t>{
+    "featureType": {
+        "name": "khu_địa_chính",
+        "title": "khu_dc_abc",
+        "abstract": "An updated feature",
+        "enabled": true
+    }
+}</t>
+  </si>
+  <si>
+    <t>http://localhost:8085/geoserver/rest/layer/{layer_name}</t>
+  </si>
+  <si>
+    <t>Xóa 1 layer</t>
   </si>
 </sst>
 </file>
@@ -367,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,50 +428,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,135 +811,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5BAA92-DC99-43F4-B47C-F9CDE30933A4}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -923,7 +968,7 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -951,241 +996,241 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="9" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="10" t="s">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="8" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="15" t="s">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-    </row>
-    <row r="9" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+    </row>
+    <row r="9" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="15" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="8" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="8" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8" t="s">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="8" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="8" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="8" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1215,7 +1260,7 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1243,7 +1288,7 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1271,243 +1316,243 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="9" t="s">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="10" t="s">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="8" t="s">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="15" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-    </row>
-    <row r="18" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="15" t="s">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="8" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="15" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="8" t="s">
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8" t="s">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="8" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="8" t="s">
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8" t="s">
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="8" t="s">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8" t="s">
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1537,7 +1582,7 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1565,7 +1610,7 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1593,40 +1638,232 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
     </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+    </row>
+    <row r="26" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A22:Z24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:U16"/>
+  <mergeCells count="89">
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="O9:U9"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="V9:X9"/>
     <mergeCell ref="V10:X10"/>
@@ -1643,22 +1880,41 @@
     <mergeCell ref="A4:Z6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:U16"/>
     <mergeCell ref="A13:Z15"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="V11:X11"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A22:Z24"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:U21"/>
+    <mergeCell ref="V21:X21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{083BD967-CB79-4443-8C0F-F90E79746B45}"/>
@@ -1671,6 +1927,10 @@
     <hyperlink ref="B19" r:id="rId8" xr:uid="{31B06DB8-0272-460E-8ED0-EA0CA4756959}"/>
     <hyperlink ref="B21" r:id="rId9" xr:uid="{F3B0218C-FFA5-4272-81F8-D91B27FB1416}"/>
     <hyperlink ref="B20" r:id="rId10" xr:uid="{337417E1-6995-4062-9B7A-9D7B5B64D550}"/>
+    <hyperlink ref="B26" r:id="rId11" xr:uid="{312061ED-59D9-4186-8A3A-712CF3B781A5}"/>
+    <hyperlink ref="B27" r:id="rId12" xr:uid="{DD7B81EE-A1B9-42A5-9C1F-4A00421C9427}"/>
+    <hyperlink ref="B29" r:id="rId13" xr:uid="{D09F09C2-2341-4235-9325-332B721995C0}"/>
+    <hyperlink ref="B28" r:id="rId14" xr:uid="{DFC12EA8-64BC-4ACC-9F31-8E6290BE2079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
